--- a/Stories/PopularityContest.xlsx
+++ b/Stories/PopularityContest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{049C3806-F3E3-4534-A5AC-D3F66A6914AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7926E-CB10-4244-B4E3-98538E94232C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F50F970A-4E32-4E54-B873-6EEE0EEFCF4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F50F970A-4E32-4E54-B873-6EEE0EEFCF4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>MILITARY</t>
   </si>
@@ -310,6 +310,36 @@
   </si>
   <si>
     <t>TOWN_MARKET</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>In an effort to make sure that this was not a case of malicious intent, you had poured a large of amount of resources into investigation this issue. The enemy spies took this opportunity to relay this information back to their Kingdom and the neighbouring Kingdom took this opportunity to launch an attack on you.</t>
+  </si>
+  <si>
+    <t>The results from the poll came back and the results it seems like the villages did not favour you well. The neighbouring Kingdom took this chance of this chaos and distress to commit to their attacks on your Kingdom.</t>
+  </si>
+  <si>
+    <t>Increasing the taxes had brought about no positive outcomes. In fact, it had caused even more unrest within the Kingdom and the villagers started rioting. The neighbouring Kingdom then took opportunity of this unrest to attack your throne.</t>
+  </si>
+  <si>
+    <t>You managed to quell some of the unrest within the Kingdom and raise your ratings, at a cost of the Kingdom's funds. The neighbouring Kingdom realised that you had lacked the resources to maintain and defend your Kingdom and decided to launch an attack.</t>
+  </si>
+  <si>
+    <t>Word that you had crafted rumours and lies about the neighbouring Kings had leaked and the neighbouring Kings caught wind of this. This greatly angered them and decided to form an alliance in order to destroy you.</t>
   </si>
 </sst>
 </file>
@@ -463,59 +493,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,420 +866,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86F5A0E-64A9-4637-A3BB-CF160B242019}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.75">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="41.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:13" ht="41.4">
+      <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="14" t="b">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="42.6" customHeight="1">
+      <c r="A4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="327.75">
-      <c r="A5" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="317.39999999999998">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13" ht="27.6">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.5">
-      <c r="A7" s="10" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.6">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="199.5">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="193.2">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:13" ht="27.6">
+      <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="299.25">
-      <c r="A10" s="11" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="289.8">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:13" ht="27.6">
+      <c r="A11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="199.5">
-      <c r="A12" s="11" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="193.2">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:13" ht="27.6">
+      <c r="A13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="256.5">
-      <c r="A14" s="11" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="248.4">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="8" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="55.2">
+      <c r="A15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="55.2">
+      <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="55.2">
+      <c r="A17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="55.2">
+      <c r="A18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.2">
+      <c r="A19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
@@ -1254,12 +1393,6 @@
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/PopularityContest.xlsx
+++ b/Stories/PopularityContest.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7926E-CB10-4244-B4E3-98538E94232C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F50F970A-4E32-4E54-B873-6EEE0EEFCF4D}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,263 +83,263 @@
     <t>Upfront</t>
   </si>
   <si>
-    <t>The Kings ratings are at an all time low</t>
-  </si>
-  <si>
-    <t>A poll was conducted by a private group in the South Region of the Kingdom at one of the busiest market places. Of those who were able to take the survery, almost 80% rated the King equal to or worse than the previous King.</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
-    <t>A just King is a popular King</t>
-  </si>
-  <si>
-    <t>I don't believe anything in those polls. Peasants do nothing but chatter all day long and make up all kinds of stories make their simple lives more interesting.</t>
-  </si>
-  <si>
-    <t>Interesting, the other articles I read on this issue show the King at an all time high.</t>
-  </si>
-  <si>
-    <t>I've heard whisperings of such rumours for a long time</t>
-  </si>
-  <si>
-    <t>I like whichever King leaves the most money in my pocket</t>
-  </si>
-  <si>
-    <t>I voted and say the last King was better because he gave good tax breaks.</t>
-  </si>
-  <si>
-    <t>At least the Kingdom is not facing an economy crisis.</t>
-  </si>
-  <si>
-    <t>I only know that the current south regional treasurer has recently passed away.</t>
-  </si>
-  <si>
-    <t>This could be a deliberately planned scheme to overthrow the current Kingdom.</t>
-  </si>
-  <si>
     <t>Apparently only the people of the South Region are paying attention to this poll.</t>
   </si>
   <si>
-    <t>I believe the people are just jealous of how well the neighbouring Kingdoms are doing.</t>
-  </si>
-  <si>
-    <t>I did not hear anything like this from the other neighbouring Kingdoms.</t>
-  </si>
-  <si>
     <t>OUTCOME</t>
   </si>
   <si>
-    <t>There was no proof to this claim but your focus on the issue HAS caused your ratings to drop.</t>
-  </si>
-  <si>
     <t>ACTION 1</t>
   </si>
   <si>
-    <t>Perform a poll to verify the results</t>
-  </si>
-  <si>
-    <t>We can look for other ways to improve our image</t>
-  </si>
-  <si>
-    <t>Spies from other Kingdoms may have infiltrated us, this is a wise choice</t>
-  </si>
-  <si>
-    <t>Verification is essential to all of our studies and collection of history</t>
-  </si>
-  <si>
-    <t>We can fake the results to show things in our favour</t>
-  </si>
-  <si>
-    <t>That sounds like a large expense to the Kingdom to conduct</t>
-  </si>
-  <si>
-    <t>Myself and other farmers wouldlove to have our say for once.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What if we are just spending more money not helping our King to look better?
+    <t>The results are not important if money is the cause of the problem.</t>
+  </si>
+  <si>
+    <t>It is very tough to monitor all the stations with the current manpower.</t>
+  </si>
+  <si>
+    <t>ACTION 2</t>
+  </si>
+  <si>
+    <t>Punishing the villagers probably won't improve morale.</t>
+  </si>
+  <si>
+    <t>The villagers must learn to respect authority!</t>
+  </si>
+  <si>
+    <t>We should only raise taxes when the economy is prospering.</t>
+  </si>
+  <si>
+    <t>The rich will be richer, and the poor will be poorer.</t>
+  </si>
+  <si>
+    <t>This may lead to more people evading taxes.</t>
+  </si>
+  <si>
+    <t>Would perhaps reducing the taxes help to improve the ratings?</t>
+  </si>
+  <si>
+    <t>ACTION 3</t>
+  </si>
+  <si>
+    <t>Everyone must earn what they deserve through hard work!</t>
+  </si>
+  <si>
+    <t>We should propose a solution that could improve the peoples' earning power.</t>
+  </si>
+  <si>
+    <t>This could be a deferment plan for us to investigate this case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The money would be useless if the supply could not keep up with the demand. </t>
+  </si>
+  <si>
+    <t>Should we attend to the people needs instead of sending money?</t>
+  </si>
+  <si>
+    <t>ACTION 4</t>
+  </si>
+  <si>
+    <t>TOWN_MARKET</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>Peasants do nothing but chatter all day long and make up all kinds of stories make their simple lives more interesting.</t>
+  </si>
+  <si>
+    <t>I've heard whisperings of such rumours for a long time.</t>
+  </si>
+  <si>
+    <t>I only know that the current South Regional Treasurer has recently passed away.</t>
+  </si>
+  <si>
+    <t>There was no proof to this claim but your focus on the issue has caused your ratings to drop according to new reports.</t>
+  </si>
+  <si>
+    <t>Perform a poll to verify these new low ratings.</t>
+  </si>
+  <si>
+    <t>Other farmers and I would love to have our say for once.</t>
+  </si>
+  <si>
+    <t>Raise taxes on the villagers until ratings improve.</t>
+  </si>
+  <si>
+    <t>We can ensure future generations of the throne have enough wealth to survive but the villagers will not be happier until they accept defeat.</t>
+  </si>
+  <si>
+    <t>If we can control their money with a tight grip we can influence their views.</t>
+  </si>
+  <si>
+    <t>Lowering taxes will be sure to make you more popular.</t>
+  </si>
+  <si>
+    <t>I don't want to pay the price for the opinions of others.</t>
+  </si>
+  <si>
+    <t>Send each family some money from the treasury.</t>
+  </si>
+  <si>
+    <t>This doesn't seem like a direct solution to the problem.</t>
+  </si>
+  <si>
+    <t>I believe that will make us popular and poor as well.</t>
+  </si>
+  <si>
+    <t>This should keep them happy for a while.</t>
+  </si>
+  <si>
+    <t>My family will be happy with more food on the table.</t>
+  </si>
+  <si>
+    <t>Actions speak louder than words.</t>
+  </si>
+  <si>
+    <t>Increasing the taxes had brought about no positive outcomes. In fact, it had caused even more unrest within the kingdom and the villagers started rioting. The neighbouring kingdom then took opportunity of this unrest to attack your throne.</t>
+  </si>
+  <si>
+    <t>In an effort to make sure that this was not a case of malicious intent, you had poured a large of amount of resources into investigating this issue. The enemy spies took this opportunity to relay this information back to their kingdom and the neighbouring kingdom is preparing to launch an attack on you.</t>
+  </si>
+  <si>
+    <t>The results from the poll came back and the results confirm that your focus on ratings instead of important issues did not favour well with the villagers opinion of you. The neighbouring kingdom took this chance of chaos and distress to commit to their attacks on your kingdom.</t>
+  </si>
+  <si>
+    <t>You managed to quell some of the unrest within the kingdom and raise your ratings, at a cost of the kingdom's funds. The neighbouring kingdom realised that you lacked the resources to maintain and defend your kingdom and decided to launch an attack.</t>
+  </si>
+  <si>
+    <t>Word that you had crafted rumours and lies about the neighbouring kings was leaked and the neighbouring kings caught wind of this. This greatly angered them and they decided to form an alliance in order to destroy you.</t>
+  </si>
+  <si>
+    <t>The other kings are no match for our manpower.</t>
+  </si>
+  <si>
+    <t>Make up rumors about misdeeds of neighboring kings to convince your subjects you aren't so bad</t>
+  </si>
+  <si>
+    <t>The kings ratings are at an all-time low</t>
+  </si>
+  <si>
+    <t>This could be a deliberately planned scheme to overthrow the current king.</t>
+  </si>
+  <si>
+    <t>I voted and said the last king was better because he gave good tax breaks.</t>
+  </si>
+  <si>
+    <t>A just king is a popular king.</t>
+  </si>
+  <si>
+    <t>Interesting, the other articles I read on this issue show the king at an all-time high.</t>
+  </si>
+  <si>
+    <t>I believe the people are just jealous of how well the neighbouring kingdoms are doing.</t>
+  </si>
+  <si>
+    <t>I did not hear anything like this from the other neighbouring kingdoms.</t>
+  </si>
+  <si>
+    <t>At least the kingdom is not facing an economic crisis.</t>
+  </si>
+  <si>
+    <t>I like whichever king leaves the most money in my pocket</t>
+  </si>
+  <si>
+    <t>We can look for other ways to improve our image.</t>
+  </si>
+  <si>
+    <t>Verification is essential to all of our studies and collection of history.</t>
+  </si>
+  <si>
+    <t>We can fake the results to show things in our favour.</t>
+  </si>
+  <si>
+    <t>That sounds like a large expense to the kingdom to conduct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It may not sound convincing to our allied kingdoms by using such method.  </t>
+  </si>
+  <si>
+    <t>I believe this is a strategy by the neighbouring kingdoms to pry away our people.</t>
+  </si>
+  <si>
+    <t>Our citizens in the other kingdoms may lose confidence with the king if the overall ratings are low.</t>
+  </si>
+  <si>
+    <t>Why not try performing the poll in other kingdoms to see if there is any positive feedback?</t>
+  </si>
+  <si>
+    <t>The people will still doubt our king qualities regardless of the results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if we are just spending more money not helping our king to look better?
 </t>
   </si>
   <si>
-    <t>The results are not important if money is the cause of the problem.</t>
-  </si>
-  <si>
-    <t>It is very tough to monitor all the stations with the current manpower.</t>
-  </si>
-  <si>
-    <t>The people will still doubt our King qualities regardless of the results.</t>
-  </si>
-  <si>
-    <t>Why not try performimg the poll in other Kingdoms to see if there is any positive feedbacks?</t>
-  </si>
-  <si>
-    <t>Our citizens in the other Kingdoms may loss confidence with the King if the overall ratings are low.</t>
-  </si>
-  <si>
-    <t>ACTION 2</t>
-  </si>
-  <si>
-    <t>Raise taxes on the villagers until ratings improve</t>
-  </si>
-  <si>
-    <t>Punishing the villagers probably won't improve morale.</t>
-  </si>
-  <si>
-    <t>The villagers must learn to respect authority!</t>
-  </si>
-  <si>
-    <t>We can ensure future generations of the throne have enough wealth to survive but the villagers will not be happier until they accept defeat</t>
-  </si>
-  <si>
-    <t>If we can control their money with a tight grip we can influence their views</t>
-  </si>
-  <si>
-    <t>Lowering taxes will be sure to make you more popular</t>
-  </si>
-  <si>
-    <t>I don't want to pay the price for the opinions of others</t>
-  </si>
-  <si>
-    <t>We should only raise taxes when the economy is prospering.</t>
-  </si>
-  <si>
-    <t>The rich will be richer, and the poor will be poorer.</t>
-  </si>
-  <si>
-    <t>I believe this is a strategy by the neighbouring Kingdoms to pry away our people.</t>
-  </si>
-  <si>
-    <t>This may lead to more people evading taxes.</t>
-  </si>
-  <si>
-    <t>Would perhaps reducing the taxes help to improve the ratings?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It may not sounds convincing to our allied Kingdoms by using such method.  </t>
-  </si>
-  <si>
-    <t>ACTION 3</t>
-  </si>
-  <si>
-    <t>Send each family some money from the treasury</t>
-  </si>
-  <si>
-    <t>This doesn't seem like a direct solution to the problem</t>
-  </si>
-  <si>
-    <t>Everyone must earn what they deserve through hard work!</t>
-  </si>
-  <si>
-    <t>I believe that will make us popular and poor as well</t>
-  </si>
-  <si>
-    <t>This should keep them happy for awhile</t>
-  </si>
-  <si>
-    <t>A gracious King is best</t>
-  </si>
-  <si>
-    <t>My family will be happy with more food on the table</t>
-  </si>
-  <si>
-    <t>Each household may not receive a lot with the current limited liquidity assets of the Kingdom.</t>
-  </si>
-  <si>
-    <t>We should propose a solution that could improve the peoples' earning power.</t>
-  </si>
-  <si>
-    <t>This could be a deferment plan for us to investigate this case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The money would be useless if the supply could not keep up with the demand. </t>
-  </si>
-  <si>
-    <t>Should we attend to the people needs instead of sending money?</t>
-  </si>
-  <si>
-    <t>This may relieve our people living in our Kingdoms but not those staying outisde the Kingdoms.</t>
-  </si>
-  <si>
-    <t>ACTION 4</t>
-  </si>
-  <si>
-    <t>Make up rumors about misdeeds of neighboring Kings to convince your subjects you aren't so bad</t>
-  </si>
-  <si>
-    <t>The other Kings have their own problems but this doesn't solve ours</t>
-  </si>
-  <si>
-    <t>The other Kings are no match for our manpower</t>
-  </si>
-  <si>
-    <t>Actions speak louder than words</t>
-  </si>
-  <si>
-    <t>We can achieve more power if we can diminish the images of the other Kings</t>
-  </si>
-  <si>
-    <t>True, other Kingoms do have higher taxes...</t>
-  </si>
-  <si>
-    <t>I don't live in other Kingdoms so I'm not worried about other Kings</t>
-  </si>
-  <si>
-    <t>I am sure that the overall trading between the neighbouring Kingdoms would be heavily impacted.</t>
-  </si>
-  <si>
-    <t>The King's word is my word.</t>
-  </si>
-  <si>
-    <t>This may be deemed as a mockery for other Kingdoms to declare war against us.</t>
-  </si>
-  <si>
-    <t>I could see the other Kingdoms using the same tactic to tarnish our reputation as well.</t>
-  </si>
-  <si>
-    <t>Absolutely no! Do you know how hard it is to maintain a diplomatic friendship with the neighbouring Kingdoms.</t>
-  </si>
-  <si>
-    <t>I believe this would violate or break the treaties formed with the other Kingdoms.</t>
-  </si>
-  <si>
-    <t>TOWN_MARKET</t>
-  </si>
-  <si>
-    <t>EVENT SUMMARY HEADER</t>
-  </si>
-  <si>
-    <t>ACTION 1 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 2 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 3 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 4 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>In an effort to make sure that this was not a case of malicious intent, you had poured a large of amount of resources into investigation this issue. The enemy spies took this opportunity to relay this information back to their Kingdom and the neighbouring Kingdom took this opportunity to launch an attack on you.</t>
-  </si>
-  <si>
-    <t>The results from the poll came back and the results it seems like the villages did not favour you well. The neighbouring Kingdom took this chance of this chaos and distress to commit to their attacks on your Kingdom.</t>
-  </si>
-  <si>
-    <t>Increasing the taxes had brought about no positive outcomes. In fact, it had caused even more unrest within the Kingdom and the villagers started rioting. The neighbouring Kingdom then took opportunity of this unrest to attack your throne.</t>
-  </si>
-  <si>
-    <t>You managed to quell some of the unrest within the Kingdom and raise your ratings, at a cost of the Kingdom's funds. The neighbouring Kingdom realised that you had lacked the resources to maintain and defend your Kingdom and decided to launch an attack.</t>
-  </si>
-  <si>
-    <t>Word that you had crafted rumours and lies about the neighbouring Kings had leaked and the neighbouring Kings caught wind of this. This greatly angered them and decided to form an alliance in order to destroy you.</t>
+    <t>This may be deemed as a mockery for other kingdoms to declare war against us.</t>
+  </si>
+  <si>
+    <t>I could see the other kingdoms using the same tactic to tarnish our reputation as well.</t>
+  </si>
+  <si>
+    <t>True, other kingdoms do have higher taxes...</t>
+  </si>
+  <si>
+    <t>I am sure that the overall trading between the neighbouring kingdoms would be heavily impacted.</t>
+  </si>
+  <si>
+    <t>I believe this would violate or break the treaties formed with the other kingdoms.</t>
+  </si>
+  <si>
+    <t>Absolutely no! Do you know how hard it is to maintain a diplomatic friendship with the neighbouring kingdoms?</t>
+  </si>
+  <si>
+    <t>A poll was conducted by a private group in the South Region of the kingdom at one of the busiest marketplaces. Of those who were able to take the survey, almost 80% rated the king equal to or worse than the previous king.</t>
+  </si>
+  <si>
+    <t>Spies from other kingdoms may have infiltrated us, this is a wise choice.</t>
+  </si>
+  <si>
+    <t>A gracious king is best.</t>
+  </si>
+  <si>
+    <t>Each household may not receive a lot with the current limited liquidity assets of the kingdom.</t>
+  </si>
+  <si>
+    <t>This may relieve our people living in our kingdoms but not those staying outside the kingdoms.</t>
+  </si>
+  <si>
+    <t>The other kings have their own problems but this doesn't solve ours.</t>
+  </si>
+  <si>
+    <t>We can achieve more power if we can diminish the images of the other kings.</t>
+  </si>
+  <si>
+    <t>I don't live in other kingdoms so I'm not worried about other kings.</t>
+  </si>
+  <si>
+    <t>The king's word is my word.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -525,36 +519,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3304D04A-C75E-4F99-9C77-0755CC98C910}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -858,50 +852,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86F5A0E-64A9-4637-A3BB-CF160B242019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="14.3" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="13"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="13"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="41.4">
+    <row r="2" spans="1:13" ht="42.8">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -940,12 +934,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="41.4">
+    <row r="3" spans="1:13" ht="42.8" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -959,12 +953,12 @@
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="42.6" customHeight="1">
+    <row r="4" spans="1:13" ht="42.65" customHeight="1">
       <c r="A4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
+      <c r="B4" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -978,53 +972,53 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="317.39999999999998">
+    <row r="5" spans="1:13" ht="256.75">
       <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.55">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="27.6">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>34</v>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1038,12 +1032,12 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="27.6">
+    <row r="7" spans="1:13" ht="28.55" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1057,52 +1051,52 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="193.2">
+    <row r="8" spans="1:13" ht="199.7">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27.6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.55" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="12"/>
@@ -1117,53 +1111,53 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="289.8">
+    <row r="10" spans="1:13" ht="299.55">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.55" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27.6">
-      <c r="A11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1177,53 +1171,53 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="193.2">
+    <row r="12" spans="1:13" ht="199.7">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.55" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27.6">
-      <c r="A13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1237,33 +1231,33 @@
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="248.4">
+    <row r="14" spans="1:13" ht="256.75">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>87</v>
@@ -1272,18 +1266,18 @@
         <v>88</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="57.1">
       <c r="A15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>97</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1297,12 +1291,12 @@
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" ht="55.2">
+    <row r="16" spans="1:13" ht="57.1">
       <c r="A16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1316,12 +1310,12 @@
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="55.2">
+    <row r="17" spans="1:13" ht="57.1">
       <c r="A17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1335,12 +1329,12 @@
       <c r="L17" s="12"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="55.2">
+    <row r="18" spans="1:13" ht="57.1">
       <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1354,12 +1348,12 @@
       <c r="L18" s="12"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="55.2">
+    <row r="19" spans="1:13" ht="57.1">
       <c r="A19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>101</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1375,6 +1369,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B15:M15"/>
@@ -1389,10 +1387,6 @@
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/PopularityContest.xlsx
+++ b/Stories/PopularityContest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F665D-8335-49E7-AC7D-9D6230519623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -212,18 +210,6 @@
     <t>Actions speak louder than words.</t>
   </si>
   <si>
-    <t>Increasing the taxes had brought about no positive outcomes. In fact, it had caused even more unrest within the kingdom and the villagers started rioting. The neighbouring kingdom then took opportunity of this unrest to attack your throne.</t>
-  </si>
-  <si>
-    <t>In an effort to make sure that this was not a case of malicious intent, you had poured a large of amount of resources into investigating this issue. The enemy spies took this opportunity to relay this information back to their kingdom and the neighbouring kingdom is preparing to launch an attack on you.</t>
-  </si>
-  <si>
-    <t>The results from the poll came back and the results confirm that your focus on ratings instead of important issues did not favour well with the villagers opinion of you. The neighbouring kingdom took this chance of chaos and distress to commit to their attacks on your kingdom.</t>
-  </si>
-  <si>
-    <t>You managed to quell some of the unrest within the kingdom and raise your ratings, at a cost of the kingdom's funds. The neighbouring kingdom realised that you lacked the resources to maintain and defend your kingdom and decided to launch an attack.</t>
-  </si>
-  <si>
     <t>Word that you had crafted rumours and lies about the neighbouring kings was leaked and the neighbouring kings caught wind of this. This greatly angered them and they decided to form an alliance in order to destroy you.</t>
   </si>
   <si>
@@ -334,12 +320,24 @@
   </si>
   <si>
     <t>The king's word is my word.</t>
+  </si>
+  <si>
+    <t>The results from the poll returned and it further cemented the truth that your villagers did not like you. The neighbouring kingdom took chance of the distress within your kingdom to commit to their attacks.</t>
+  </si>
+  <si>
+    <t>You poured large amounts of  attention and resource into investigating this issue, making sure it was not of ill-intent. One of the neighbouring kingdom caught wind of this and is taking the opportunity to attack you while your guard was down.</t>
+  </si>
+  <si>
+    <t>Increasing the taxes had brought about no positive outcomes. In fact, it had caused even more unrest within the kingdom and the villagers started rioting. The neighbouring kingdom took opportunity of this unrest to attack your throne.</t>
+  </si>
+  <si>
+    <t>You managed to quell some of the unrest within the kingdom and raised your ratings. Aware that you were down on resources to defend your kingdom, the neighbouring kingdom decided to launch an attack.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -519,11 +517,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,18 +541,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,50 +850,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.3" customHeight="1">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="13"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="42.8">
+    <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -934,12 +932,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.8" customHeight="1">
+    <row r="3" spans="1:13" ht="42.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>68</v>
+      <c r="B3" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -953,12 +951,12 @@
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="42.65" customHeight="1">
+    <row r="4" spans="1:13" ht="42.6" customHeight="1">
       <c r="A4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>93</v>
+      <c r="B4" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -972,52 +970,52 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="256.75">
+    <row r="5" spans="1:13" ht="248.4">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.6">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="12"/>
@@ -1032,11 +1030,11 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="28.55" customHeight="1">
+    <row r="7" spans="1:13" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="12"/>
@@ -1051,30 +1049,30 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="199.7">
+    <row r="8" spans="1:13" ht="193.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>22</v>
@@ -1083,20 +1081,20 @@
         <v>23</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.55" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="12"/>
@@ -1111,7 +1109,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="299.55">
+    <row r="10" spans="1:13" ht="289.8">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>29</v>
@@ -1149,14 +1147,14 @@
         <v>30</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.55" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="12"/>
@@ -1171,7 +1169,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="199.7">
+    <row r="12" spans="1:13" ht="193.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1188,13 +1186,13 @@
         <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>33</v>
@@ -1209,15 +1207,15 @@
         <v>36</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.55" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>67</v>
+      <c r="B13" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1231,53 +1229,53 @@
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="256.75">
+    <row r="14" spans="1:13" ht="248.4">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="57.1">
+    </row>
+    <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>62</v>
+      <c r="B15" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1291,12 +1289,12 @@
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" ht="57.1">
+    <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>63</v>
+      <c r="B16" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1310,12 +1308,12 @@
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="57.1">
+    <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>61</v>
+      <c r="B17" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1329,12 +1327,12 @@
       <c r="L17" s="12"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="57.1">
+    <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>64</v>
+      <c r="B18" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1348,12 +1346,12 @@
       <c r="L18" s="12"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="57.1">
+    <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>65</v>
+      <c r="B19" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1369,11 +1367,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B19:M19"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B15:M15"/>
     <mergeCell ref="B16:M16"/>
@@ -1387,6 +1380,11 @@
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/PopularityContest.xlsx
+++ b/Stories/PopularityContest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F665D-8335-49E7-AC7D-9D6230519623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E722F3-7F7A-4956-9F79-BAE5134A5554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,18 +126,12 @@
     <t>Everyone must earn what they deserve through hard work!</t>
   </si>
   <si>
-    <t>We should propose a solution that could improve the peoples' earning power.</t>
-  </si>
-  <si>
     <t>This could be a deferment plan for us to investigate this case.</t>
   </si>
   <si>
     <t xml:space="preserve">The money would be useless if the supply could not keep up with the demand. </t>
   </si>
   <si>
-    <t>Should we attend to the people needs instead of sending money?</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
@@ -159,15 +153,9 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>Peasants do nothing but chatter all day long and make up all kinds of stories make their simple lives more interesting.</t>
-  </si>
-  <si>
     <t>I've heard whisperings of such rumours for a long time.</t>
   </si>
   <si>
-    <t>I only know that the current South Regional Treasurer has recently passed away.</t>
-  </si>
-  <si>
     <t>There was no proof to this claim but your focus on the issue has caused your ratings to drop according to new reports.</t>
   </si>
   <si>
@@ -216,36 +204,18 @@
     <t>The other kings are no match for our manpower.</t>
   </si>
   <si>
-    <t>Make up rumors about misdeeds of neighboring kings to convince your subjects you aren't so bad</t>
-  </si>
-  <si>
-    <t>The kings ratings are at an all-time low</t>
-  </si>
-  <si>
-    <t>This could be a deliberately planned scheme to overthrow the current king.</t>
-  </si>
-  <si>
     <t>I voted and said the last king was better because he gave good tax breaks.</t>
   </si>
   <si>
     <t>A just king is a popular king.</t>
   </si>
   <si>
-    <t>Interesting, the other articles I read on this issue show the king at an all-time high.</t>
-  </si>
-  <si>
     <t>I believe the people are just jealous of how well the neighbouring kingdoms are doing.</t>
   </si>
   <si>
     <t>I did not hear anything like this from the other neighbouring kingdoms.</t>
   </si>
   <si>
-    <t>At least the kingdom is not facing an economic crisis.</t>
-  </si>
-  <si>
-    <t>I like whichever king leaves the most money in my pocket</t>
-  </si>
-  <si>
     <t>We can look for other ways to improve our image.</t>
   </si>
   <si>
@@ -255,83 +225,113 @@
     <t>We can fake the results to show things in our favour.</t>
   </si>
   <si>
-    <t>That sounds like a large expense to the kingdom to conduct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It may not sound convincing to our allied kingdoms by using such method.  </t>
-  </si>
-  <si>
     <t>I believe this is a strategy by the neighbouring kingdoms to pry away our people.</t>
   </si>
   <si>
-    <t>Our citizens in the other kingdoms may lose confidence with the king if the overall ratings are low.</t>
-  </si>
-  <si>
     <t>Why not try performing the poll in other kingdoms to see if there is any positive feedback?</t>
   </si>
   <si>
-    <t>The people will still doubt our king qualities regardless of the results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What if we are just spending more money not helping our king to look better?
+    <t>This may be deemed as a mockery for other kingdoms to declare war against us.</t>
+  </si>
+  <si>
+    <t>I could see the other kingdoms using the same tactic to tarnish our reputation as well.</t>
+  </si>
+  <si>
+    <t>True, other kingdoms do have higher taxes...</t>
+  </si>
+  <si>
+    <t>I am sure that the overall trading between the neighbouring kingdoms would be heavily impacted.</t>
+  </si>
+  <si>
+    <t>I believe this would violate or break the treaties formed with the other kingdoms.</t>
+  </si>
+  <si>
+    <t>Absolutely no! Do you know how hard it is to maintain a diplomatic friendship with the neighbouring kingdoms?</t>
+  </si>
+  <si>
+    <t>Spies from other kingdoms may have infiltrated us, this is a wise choice.</t>
+  </si>
+  <si>
+    <t>A gracious king is best.</t>
+  </si>
+  <si>
+    <t>The other kings have their own problems but this doesn't solve ours.</t>
+  </si>
+  <si>
+    <t>We can achieve more power if we can diminish the images of the other kings.</t>
+  </si>
+  <si>
+    <t>I don't live in other kingdoms so I'm not worried about other kings.</t>
+  </si>
+  <si>
+    <t>The King's ratings are at an all-time low.</t>
+  </si>
+  <si>
+    <t>A poll was conducted by a private group in the South Region of the Kingdom at one of the busiest marketplaces. Of those who were able to take the survey, almost 80% rated the King equal to or worse than the previous king.</t>
+  </si>
+  <si>
+    <t>Peasants do nothing but chatter all day long and make up all kinds of stories to make their simple lives more interesting.</t>
+  </si>
+  <si>
+    <t>Interesting, the other articles I read on this issue show the King at an all-time high.</t>
+  </si>
+  <si>
+    <t>I like whichever king leaves the most money in my pocket.</t>
+  </si>
+  <si>
+    <t>At least the Kingdom is not facing an economic crisis.</t>
+  </si>
+  <si>
+    <t>I only know that the current South Region Treasurer has recently passed away.</t>
+  </si>
+  <si>
+    <t>This could be a deliberately planned scheme to overthrow the current King.</t>
+  </si>
+  <si>
+    <t>That sounds like a large expense for the Kingdom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if we are just spending more money and not helping our King to look better?
 </t>
   </si>
   <si>
-    <t>This may be deemed as a mockery for other kingdoms to declare war against us.</t>
-  </si>
-  <si>
-    <t>I could see the other kingdoms using the same tactic to tarnish our reputation as well.</t>
-  </si>
-  <si>
-    <t>True, other kingdoms do have higher taxes...</t>
-  </si>
-  <si>
-    <t>I am sure that the overall trading between the neighbouring kingdoms would be heavily impacted.</t>
-  </si>
-  <si>
-    <t>I believe this would violate or break the treaties formed with the other kingdoms.</t>
-  </si>
-  <si>
-    <t>Absolutely no! Do you know how hard it is to maintain a diplomatic friendship with the neighbouring kingdoms?</t>
-  </si>
-  <si>
-    <t>A poll was conducted by a private group in the South Region of the kingdom at one of the busiest marketplaces. Of those who were able to take the survey, almost 80% rated the king equal to or worse than the previous king.</t>
-  </si>
-  <si>
-    <t>Spies from other kingdoms may have infiltrated us, this is a wise choice.</t>
-  </si>
-  <si>
-    <t>A gracious king is best.</t>
-  </si>
-  <si>
-    <t>Each household may not receive a lot with the current limited liquidity assets of the kingdom.</t>
-  </si>
-  <si>
-    <t>This may relieve our people living in our kingdoms but not those staying outside the kingdoms.</t>
-  </si>
-  <si>
-    <t>The other kings have their own problems but this doesn't solve ours.</t>
-  </si>
-  <si>
-    <t>We can achieve more power if we can diminish the images of the other kings.</t>
-  </si>
-  <si>
-    <t>I don't live in other kingdoms so I'm not worried about other kings.</t>
-  </si>
-  <si>
-    <t>The king's word is my word.</t>
-  </si>
-  <si>
-    <t>The results from the poll returned and it further cemented the truth that your villagers did not like you. The neighbouring kingdom took chance of the distress within your kingdom to commit to their attacks.</t>
-  </si>
-  <si>
-    <t>You poured large amounts of  attention and resource into investigating this issue, making sure it was not of ill-intent. One of the neighbouring kingdom caught wind of this and is taking the opportunity to attack you while your guard was down.</t>
-  </si>
-  <si>
-    <t>Increasing the taxes had brought about no positive outcomes. In fact, it had caused even more unrest within the kingdom and the villagers started rioting. The neighbouring kingdom took opportunity of this unrest to attack your throne.</t>
-  </si>
-  <si>
-    <t>You managed to quell some of the unrest within the kingdom and raised your ratings. Aware that you were down on resources to defend your kingdom, the neighbouring kingdom decided to launch an attack.</t>
+    <t>The people will still doubt our King's quality regardless of the results.</t>
+  </si>
+  <si>
+    <t>Our citizens in the other kingdoms may lose confidence with the King if the overall ratings are low.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It may not sound convincing to our allied kingdoms by using such a method.  </t>
+  </si>
+  <si>
+    <t>Make up rumors about misdeeds of neighbouring kings to convince your subjects you aren't so bad.</t>
+  </si>
+  <si>
+    <t>Each household may not receive a lot with the current limited liquidity assets of the Kingdom.</t>
+  </si>
+  <si>
+    <t>We should propose a solution that could improve the people's earning power.</t>
+  </si>
+  <si>
+    <t>Should we attend to the people's needs instead of sending money?</t>
+  </si>
+  <si>
+    <t>This may relieve our people living in our Kingdom but not those staying outside the Kingdom.</t>
+  </si>
+  <si>
+    <t>The King's word is my word.</t>
+  </si>
+  <si>
+    <t>You poured large amounts of attention and resources into investigating this issue, making sure it was not of ill-intent. One of the neighbouring kingdoms caught wind of this and is taking the opportunity to attack you while your guard is down.</t>
+  </si>
+  <si>
+    <t>The results from the poll returned and it further cemented the truth that your villagers did not like you. The neighbouring kingdom took advantage of the distress within your Kingdom to commit to their attacks.</t>
+  </si>
+  <si>
+    <t>Increasing the taxes had brought about no positive outcomes. In fact, it had caused even more unrest within the Kingdom and the villagers started rioting. The neighbouring kingdom took the opportunity of this unrest to attack your throne.</t>
+  </si>
+  <si>
+    <t>You managed to quell some of the unrest within the Kingdom and raised your ratings. Aware that you were down on resources to defend your Kingdom, the neighbouring kingdom decided to launch an attack.</t>
   </si>
 </sst>
 </file>
@@ -517,11 +517,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -529,18 +541,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -860,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
@@ -868,30 +868,30 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="13"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
@@ -934,145 +934,145 @@
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="42.6" customHeight="1">
       <c r="A4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
+      <c r="B4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="248.4">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.6">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+      <c r="B6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+      <c r="B7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="193.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>22</v>
@@ -1081,33 +1081,33 @@
         <v>23</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="B9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="289.8">
       <c r="A10" s="7" t="s">
@@ -1120,16 +1120,16 @@
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>27</v>
@@ -1138,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>29</v>
@@ -1147,226 +1147,228 @@
         <v>30</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
+      <c r="B11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="193.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="L12" s="8" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="248.4">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>97</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B15:M15"/>
     <mergeCell ref="B16:M16"/>
@@ -1383,8 +1385,6 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/PopularityContest.xlsx
+++ b/Stories/PopularityContest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E722F3-7F7A-4956-9F79-BAE5134A5554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83941EAD-905F-474E-A867-BD7A213813DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>The results are not important if money is the cause of the problem.</t>
   </si>
   <si>
-    <t>It is very tough to monitor all the stations with the current manpower.</t>
-  </si>
-  <si>
     <t>ACTION 2</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Everyone must earn what they deserve through hard work!</t>
   </si>
   <si>
-    <t>This could be a deferment plan for us to investigate this case.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The money would be useless if the supply could not keep up with the demand. </t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>I've heard whisperings of such rumours for a long time.</t>
   </si>
   <si>
-    <t>There was no proof to this claim but your focus on the issue has caused your ratings to drop according to new reports.</t>
-  </si>
-  <si>
     <t>Perform a poll to verify these new low ratings.</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>We can ensure future generations of the throne have enough wealth to survive but the villagers will not be happier until they accept defeat.</t>
   </si>
   <si>
-    <t>If we can control their money with a tight grip we can influence their views.</t>
-  </si>
-  <si>
     <t>Lowering taxes will be sure to make you more popular.</t>
   </si>
   <si>
@@ -225,24 +213,15 @@
     <t>We can fake the results to show things in our favour.</t>
   </si>
   <si>
-    <t>I believe this is a strategy by the neighbouring kingdoms to pry away our people.</t>
-  </si>
-  <si>
     <t>Why not try performing the poll in other kingdoms to see if there is any positive feedback?</t>
   </si>
   <si>
-    <t>This may be deemed as a mockery for other kingdoms to declare war against us.</t>
-  </si>
-  <si>
     <t>I could see the other kingdoms using the same tactic to tarnish our reputation as well.</t>
   </si>
   <si>
     <t>True, other kingdoms do have higher taxes...</t>
   </si>
   <si>
-    <t>I am sure that the overall trading between the neighbouring kingdoms would be heavily impacted.</t>
-  </si>
-  <si>
     <t>I believe this would violate or break the treaties formed with the other kingdoms.</t>
   </si>
   <si>
@@ -256,9 +235,6 @@
   </si>
   <si>
     <t>The other kings have their own problems but this doesn't solve ours.</t>
-  </si>
-  <si>
-    <t>We can achieve more power if we can diminish the images of the other kings.</t>
   </si>
   <si>
     <t>I don't live in other kingdoms so I'm not worried about other kings.</t>
@@ -295,36 +271,18 @@
 </t>
   </si>
   <si>
-    <t>The people will still doubt our King's quality regardless of the results.</t>
-  </si>
-  <si>
     <t>Our citizens in the other kingdoms may lose confidence with the King if the overall ratings are low.</t>
   </si>
   <si>
     <t xml:space="preserve">It may not sound convincing to our allied kingdoms by using such a method.  </t>
   </si>
   <si>
-    <t>Make up rumors about misdeeds of neighbouring kings to convince your subjects you aren't so bad.</t>
-  </si>
-  <si>
-    <t>Each household may not receive a lot with the current limited liquidity assets of the Kingdom.</t>
-  </si>
-  <si>
     <t>We should propose a solution that could improve the people's earning power.</t>
   </si>
   <si>
-    <t>Should we attend to the people's needs instead of sending money?</t>
-  </si>
-  <si>
-    <t>This may relieve our people living in our Kingdom but not those staying outside the Kingdom.</t>
-  </si>
-  <si>
     <t>The King's word is my word.</t>
   </si>
   <si>
-    <t>You poured large amounts of attention and resources into investigating this issue, making sure it was not of ill-intent. One of the neighbouring kingdoms caught wind of this and is taking the opportunity to attack you while your guard is down.</t>
-  </si>
-  <si>
     <t>The results from the poll returned and it further cemented the truth that your villagers did not like you. The neighbouring kingdom took advantage of the distress within your Kingdom to commit to their attacks.</t>
   </si>
   <si>
@@ -332,6 +290,48 @@
   </si>
   <si>
     <t>You managed to quell some of the unrest within the Kingdom and raised your ratings. Aware that you were down on resources to defend your Kingdom, the neighbouring kingdom decided to launch an attack.</t>
+  </si>
+  <si>
+    <t>Make up rumours about misdeeds of neighbouring kings to convince your subjects you aren't so bad.</t>
+  </si>
+  <si>
+    <t>You poured large amounts of attention and resources into investigating this issue, making sure it was not of ill-intent. One of the neighbouring kingdoms caught wind of this and took the opportunity to attack you while your guard was down.</t>
+  </si>
+  <si>
+    <t>We can achieve more power if we can diminish the reputation of the other kings.</t>
+  </si>
+  <si>
+    <t>I am sure that our overall trade with the neighbouring kingdoms would be heavily impacted.</t>
+  </si>
+  <si>
+    <t>This may be deemed as a mockery by other kingdoms and they may declare war against us.</t>
+  </si>
+  <si>
+    <t>This may be relief to our people living in the Kingdom but not to those staying outside the Kingdom.</t>
+  </si>
+  <si>
+    <t>This could buy us enough time to investigate this case.</t>
+  </si>
+  <si>
+    <t>Each household may not receive a lot with the current limited liquid assets of the Kingdom.</t>
+  </si>
+  <si>
+    <t>If we can control their money with a tight grip, we can influence their views.</t>
+  </si>
+  <si>
+    <t>I believe this is a strategy by the neighbouring kingdoms to lure away our people.</t>
+  </si>
+  <si>
+    <t>The people will still doubt our King's abilities regardless of the results.</t>
+  </si>
+  <si>
+    <t>It is very tough to monitor all the stations  with the current manpower.</t>
+  </si>
+  <si>
+    <t>There was no proof to this claim, but according to new reports your focus on the issue has caused your ratings to drop.</t>
+  </si>
+  <si>
+    <t>Should we attend to the people's needs instead of just sending money?</t>
   </si>
 </sst>
 </file>
@@ -517,31 +517,31 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -860,38 +860,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:M19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
@@ -934,440 +934,439 @@
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="42.6" customHeight="1">
       <c r="A4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="12"/>
+      <c r="B4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="248.4">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.6">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="12"/>
+      <c r="B6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="12"/>
+      <c r="B7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="193.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="289.8">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M10" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="193.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="L12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="248.4">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:M7"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B15:M15"/>
@@ -1385,6 +1384,7 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
